--- a/1-过程管理/会议记录/会议记录-202004081400.xlsx
+++ b/1-过程管理/会议记录/会议记录-202004081400.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaozhijun/Documents/硕士文件/软件工程综合实验/20TeamB_Scrapy/1-过程管理/会议记录/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E9110E-45A5-8241-B2CD-69974477A9CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE485D2-2EDC-6B4E-A165-83419B1B9341}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15600" yWindow="460" windowWidth="12400" windowHeight="16360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3月18日小组会议" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -218,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -241,43 +241,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -286,7 +249,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,15 +271,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -604,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,11 +665,11 @@
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
